--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il13-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il13-Il2rg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Il13</t>
+  </si>
+  <si>
+    <t>Il2rg</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il13</t>
-  </si>
-  <si>
-    <t>Il2rg</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,10 +543,10 @@
         <v>1.276646</v>
       </c>
       <c r="I2">
-        <v>0.6845819111941678</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="J2">
-        <v>0.6845819111941679</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.55401366666667</v>
+        <v>43.68636333333333</v>
       </c>
       <c r="N2">
-        <v>73.662041</v>
+        <v>131.05909</v>
       </c>
       <c r="O2">
-        <v>0.2501033965205259</v>
+        <v>0.4655970190670373</v>
       </c>
       <c r="P2">
-        <v>0.250103396520526</v>
+        <v>0.4655970190670373</v>
       </c>
       <c r="Q2">
-        <v>10.44892777716511</v>
+        <v>18.59067366801555</v>
       </c>
       <c r="R2">
-        <v>94.04034999448599</v>
+        <v>167.31606301214</v>
       </c>
       <c r="S2">
-        <v>0.1712162611861744</v>
+        <v>0.3305477715670403</v>
       </c>
       <c r="T2">
-        <v>0.1712162611861745</v>
+        <v>0.3305477715670404</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>1.276646</v>
       </c>
       <c r="I3">
-        <v>0.6845819111941678</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="J3">
-        <v>0.6845819111941679</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>3.615614</v>
       </c>
       <c r="O3">
-        <v>0.01227602886956614</v>
+        <v>0.01284473362738172</v>
       </c>
       <c r="P3">
-        <v>0.01227602886956614</v>
+        <v>0.01284473362738172</v>
       </c>
       <c r="Q3">
         <v>0.5128732389604445</v>
@@ -635,10 +635,10 @@
         <v>4.615859150644</v>
       </c>
       <c r="S3">
-        <v>0.008403947305402368</v>
+        <v>0.009119040507198648</v>
       </c>
       <c r="T3">
-        <v>0.008403947305402372</v>
+        <v>0.009119040507198648</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -667,10 +667,10 @@
         <v>1.276646</v>
       </c>
       <c r="I4">
-        <v>0.6845819111941678</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="J4">
-        <v>0.6845819111941679</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.078950333333333</v>
+        <v>4.981224333333333</v>
       </c>
       <c r="N4">
-        <v>15.236851</v>
+        <v>14.943673</v>
       </c>
       <c r="O4">
-        <v>0.0517334048262004</v>
+        <v>0.05308849315764798</v>
       </c>
       <c r="P4">
-        <v>0.05173340482620041</v>
+        <v>0.05308849315764799</v>
       </c>
       <c r="Q4">
-        <v>2.161340542416222</v>
+        <v>2.119753373417555</v>
       </c>
       <c r="R4">
-        <v>19.452064881746</v>
+        <v>19.077780360758</v>
       </c>
       <c r="S4">
-        <v>0.03541575314850186</v>
+        <v>0.03768985279217603</v>
       </c>
       <c r="T4">
-        <v>0.03541575314850186</v>
+        <v>0.03768985279217603</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,10 +729,10 @@
         <v>1.276646</v>
       </c>
       <c r="I5">
-        <v>0.6845819111941678</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="J5">
-        <v>0.6845819111941679</v>
+        <v>0.7099439172299504</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>67.337282</v>
+        <v>43.95590833333333</v>
       </c>
       <c r="N5">
-        <v>202.011846</v>
+        <v>131.867725</v>
       </c>
       <c r="O5">
-        <v>0.6858871697837075</v>
+        <v>0.4684697541479331</v>
       </c>
       <c r="P5">
-        <v>0.6858871697837076</v>
+        <v>0.4684697541479331</v>
       </c>
       <c r="Q5">
-        <v>28.65529057205733</v>
+        <v>18.70537818337222</v>
       </c>
       <c r="R5">
-        <v>257.897615148516</v>
+        <v>168.34840365035</v>
       </c>
       <c r="S5">
-        <v>0.4695459495540891</v>
+        <v>0.3325872523635354</v>
       </c>
       <c r="T5">
-        <v>0.4695459495540892</v>
+        <v>0.3325872523635355</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,10 +791,10 @@
         <v>0.521589</v>
       </c>
       <c r="I6">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="J6">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.55401366666667</v>
+        <v>43.68636333333333</v>
       </c>
       <c r="N6">
-        <v>73.662041</v>
+        <v>131.05909</v>
       </c>
       <c r="O6">
-        <v>0.2501033965205259</v>
+        <v>0.4655970190670373</v>
       </c>
       <c r="P6">
-        <v>0.250103396520526</v>
+        <v>0.4655970190670373</v>
       </c>
       <c r="Q6">
-        <v>4.269034478127666</v>
+        <v>7.595442188223333</v>
       </c>
       <c r="R6">
-        <v>38.421310303149</v>
+        <v>68.35897969400999</v>
       </c>
       <c r="S6">
-        <v>0.06995245232886449</v>
+        <v>0.1350492474999969</v>
       </c>
       <c r="T6">
-        <v>0.0699524523288645</v>
+        <v>0.1350492474999969</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -853,10 +853,10 @@
         <v>0.521589</v>
       </c>
       <c r="I7">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="J7">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.615614</v>
       </c>
       <c r="O7">
-        <v>0.01227602886956614</v>
+        <v>0.01284473362738172</v>
       </c>
       <c r="P7">
-        <v>0.01227602886956614</v>
+        <v>0.01284473362738172</v>
       </c>
       <c r="Q7">
         <v>0.2095404989606666</v>
@@ -883,10 +883,10 @@
         <v>1.885864490646</v>
       </c>
       <c r="S7">
-        <v>0.003433533235585681</v>
+        <v>0.00372569312018307</v>
       </c>
       <c r="T7">
-        <v>0.003433533235585681</v>
+        <v>0.00372569312018307</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -915,10 +915,10 @@
         <v>0.521589</v>
       </c>
       <c r="I8">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="J8">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.078950333333333</v>
+        <v>4.981224333333333</v>
       </c>
       <c r="N8">
-        <v>15.236851</v>
+        <v>14.943673</v>
       </c>
       <c r="O8">
-        <v>0.0517334048262004</v>
+        <v>0.05308849315764798</v>
       </c>
       <c r="P8">
-        <v>0.05173340482620041</v>
+        <v>0.05308849315764799</v>
       </c>
       <c r="Q8">
-        <v>0.8830415418043333</v>
+        <v>0.8660506062663333</v>
       </c>
       <c r="R8">
-        <v>7.947373876238999</v>
+        <v>7.794455456396999</v>
       </c>
       <c r="S8">
-        <v>0.01446952974354201</v>
+        <v>0.01539864036547195</v>
       </c>
       <c r="T8">
-        <v>0.01446952974354201</v>
+        <v>0.01539864036547195</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,10 +977,10 @@
         <v>0.521589</v>
       </c>
       <c r="I9">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="J9">
-        <v>0.2796941317153344</v>
+        <v>0.2900560827700495</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>67.337282</v>
+        <v>43.95590833333333</v>
       </c>
       <c r="N9">
-        <v>202.011846</v>
+        <v>131.867725</v>
       </c>
       <c r="O9">
-        <v>0.6858871697837075</v>
+        <v>0.4684697541479331</v>
       </c>
       <c r="P9">
-        <v>0.6858871697837076</v>
+        <v>0.4684697541479331</v>
       </c>
       <c r="Q9">
-        <v>11.707461860366</v>
+        <v>7.642306090558333</v>
       </c>
       <c r="R9">
-        <v>105.367156743294</v>
+        <v>68.78075481502501</v>
       </c>
       <c r="S9">
-        <v>0.1918386164073422</v>
+        <v>0.1358825017843976</v>
       </c>
       <c r="T9">
-        <v>0.1918386164073422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.02220666666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.06662</v>
-      </c>
-      <c r="I10">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="J10">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>24.55401366666667</v>
-      </c>
-      <c r="N10">
-        <v>73.662041</v>
-      </c>
-      <c r="O10">
-        <v>0.2501033965205259</v>
-      </c>
-      <c r="P10">
-        <v>0.250103396520526</v>
-      </c>
-      <c r="Q10">
-        <v>0.5452627968244445</v>
-      </c>
-      <c r="R10">
-        <v>4.90736517142</v>
-      </c>
-      <c r="S10">
-        <v>0.008934683005486988</v>
-      </c>
-      <c r="T10">
-        <v>0.00893468300548699</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.02220666666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.06662</v>
-      </c>
-      <c r="I11">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="J11">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.205204666666667</v>
-      </c>
-      <c r="N11">
-        <v>3.615614</v>
-      </c>
-      <c r="O11">
-        <v>0.01227602886956614</v>
-      </c>
-      <c r="P11">
-        <v>0.01227602886956614</v>
-      </c>
-      <c r="Q11">
-        <v>0.02676357829777778</v>
-      </c>
-      <c r="R11">
-        <v>0.24087220468</v>
-      </c>
-      <c r="S11">
-        <v>0.0004385483285780913</v>
-      </c>
-      <c r="T11">
-        <v>0.0004385483285780914</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.02220666666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.06662</v>
-      </c>
-      <c r="I12">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="J12">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>5.078950333333333</v>
-      </c>
-      <c r="N12">
-        <v>15.236851</v>
-      </c>
-      <c r="O12">
-        <v>0.0517334048262004</v>
-      </c>
-      <c r="P12">
-        <v>0.05173340482620041</v>
-      </c>
-      <c r="Q12">
-        <v>0.1127865570688889</v>
-      </c>
-      <c r="R12">
-        <v>1.01507901362</v>
-      </c>
-      <c r="S12">
-        <v>0.001848121934156527</v>
-      </c>
-      <c r="T12">
-        <v>0.001848121934156528</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.02220666666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.06662</v>
-      </c>
-      <c r="I13">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="J13">
-        <v>0.03572395709049765</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>67.337282</v>
-      </c>
-      <c r="N13">
-        <v>202.011846</v>
-      </c>
-      <c r="O13">
-        <v>0.6858871697837075</v>
-      </c>
-      <c r="P13">
-        <v>0.6858871697837076</v>
-      </c>
-      <c r="Q13">
-        <v>1.495336575613333</v>
-      </c>
-      <c r="R13">
-        <v>13.45802918052</v>
-      </c>
-      <c r="S13">
-        <v>0.02450260382227604</v>
-      </c>
-      <c r="T13">
-        <v>0.02450260382227605</v>
+        <v>0.1358825017843976</v>
       </c>
     </row>
   </sheetData>
